--- a/Academia.xlsx
+++ b/Academia.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,60 +484,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
-          <t>Exercicio</t>
+          <t>Teste</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1" t="n">
+        <v>121</v>
+      </c>
+      <c r="E1" t="n">
+        <v>212</v>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
-          <t>Carga</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Repetições</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
+          <t>29/02/2024 15:36:42</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
-          <t>LegPress</t>
+          <t>Esteira</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>300</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
-          <t>29/02/2024 14:58:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Supino</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>29</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29/02/2024 15:00:30</t>
+          <t>29/02/2024 15:43:20</t>
         </is>
       </c>
     </row>
